--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t>Item</t>
   </si>
@@ -759,6 +759,444 @@
     </r>
   </si>
   <si>
+    <t>42432088725</t>
+  </si>
+  <si>
+    <t>心悦城商城</t>
+  </si>
+  <si>
+    <t>41938722596</t>
+  </si>
+  <si>
+    <t>E3D</t>
+  </si>
+  <si>
+    <t>微动开关</t>
+  </si>
+  <si>
+    <t>效应器</t>
+  </si>
+  <si>
+    <t>39519147869</t>
+  </si>
+  <si>
+    <t>底盘</t>
+  </si>
+  <si>
+    <t>44518399646</t>
+  </si>
+  <si>
+    <t>人人三维</t>
+  </si>
+  <si>
+    <r>
+      <t>E3D,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米远程送料管</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E3D v6+2.0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配送0.8米远程送料管</t>
+    </r>
+  </si>
+  <si>
+    <t>43794905334</t>
+  </si>
+  <si>
+    <t>E3D v6+</t>
+  </si>
+  <si>
+    <t>39147972804</t>
+  </si>
+  <si>
+    <t>高硼硅玻璃，直径200mm，厚3mm</t>
+  </si>
+  <si>
+    <t>秦皇岛利东特种玻璃</t>
+  </si>
+  <si>
+    <t>斜杆</t>
+  </si>
+  <si>
+    <t>斜杆套件</t>
+  </si>
+  <si>
+    <t>45475115936</t>
+  </si>
+  <si>
+    <t>斜杆+效应器+斜杆滑车连接件+螺丝</t>
+  </si>
+  <si>
+    <t>520632284040</t>
+  </si>
+  <si>
+    <t>学生党3DIY创意馆</t>
+  </si>
+  <si>
+    <r>
+      <t>M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼眼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碳杆，已粘好</t>
+    </r>
+  </si>
+  <si>
+    <t>限位开关底座</t>
+  </si>
+  <si>
+    <t>滑块推杆座</t>
+  </si>
+  <si>
+    <t>斜杆套件已包含</t>
+  </si>
+  <si>
+    <t>非标件套装</t>
+  </si>
+  <si>
+    <t>滑块推杆座+效应器+限位开关底座+挤出机+自动调平感应座</t>
+  </si>
+  <si>
+    <t>45052661238</t>
+  </si>
+  <si>
+    <t>打印件</t>
+  </si>
+  <si>
+    <t>42759507561</t>
+  </si>
+  <si>
+    <t>MICROMAKE</t>
+  </si>
+  <si>
+    <t>41085699059</t>
+  </si>
+  <si>
+    <t>锐力斯传动总店</t>
+  </si>
+  <si>
+    <t>打印件，配螺丝</t>
+  </si>
+  <si>
+    <t>45755819186</t>
+  </si>
+  <si>
+    <t>碳管+球头/鱼眼</t>
+  </si>
+  <si>
+    <t>注塑件，鱼眼</t>
+  </si>
+  <si>
+    <t>14054947602</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台达，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6A</t>
+    </r>
+  </si>
+  <si>
+    <t>铭豪科技</t>
+  </si>
+  <si>
+    <t>39518671798</t>
+  </si>
+  <si>
+    <t>腾锋线材</t>
+  </si>
+  <si>
+    <r>
+      <t>SONY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（台达），6A</t>
+    </r>
+  </si>
+  <si>
+    <t>小齿距同步带同步带轮</t>
+  </si>
+  <si>
+    <t>37292680594</t>
+  </si>
+  <si>
+    <t>14.1/m</t>
+  </si>
+  <si>
+    <t>UNITTA</t>
+  </si>
+  <si>
+    <t>39909395806</t>
+  </si>
+  <si>
+    <t>2GT-6 同步带</t>
+  </si>
+  <si>
+    <t>500mm</t>
+  </si>
+  <si>
+    <t>42974167954</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧姆龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SS-5</t>
+    </r>
+  </si>
+  <si>
+    <t>450mm</t>
+  </si>
+  <si>
+    <t>上银</t>
+  </si>
+  <si>
+    <t>14821319932</t>
+  </si>
+  <si>
+    <t>上海恩瑞特传动科技</t>
+  </si>
+  <si>
+    <t>26759568854</t>
+  </si>
+  <si>
+    <t>上海勤慎机电</t>
+  </si>
+  <si>
+    <t>国产 500mm</t>
+  </si>
+  <si>
+    <t>13271784463</t>
+  </si>
+  <si>
+    <t>上海顺祥传动轴承</t>
+  </si>
+  <si>
+    <t>M3欧标 T 型螺母</t>
+  </si>
+  <si>
+    <t>M3*8mm 内六角螺丝</t>
+  </si>
+  <si>
+    <t>M3*25mm 内六角螺丝</t>
+  </si>
+  <si>
+    <t>法兰轴承，效应器</t>
+  </si>
+  <si>
+    <t>M3*35mm 内六角螺丝</t>
+  </si>
+  <si>
+    <t>皮带张紧</t>
+  </si>
+  <si>
+    <t>框架及大部分元件安装</t>
+  </si>
+  <si>
+    <t>M3尼龙防松自锁螺母</t>
+  </si>
+  <si>
+    <t>M3*20mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>M2.5*12mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>M3*6mm 内六角螺丝</t>
+  </si>
+  <si>
+    <t>滑轨</t>
+  </si>
+  <si>
+    <t>M3垫圈</t>
+  </si>
+  <si>
+    <t>16474621166</t>
+  </si>
+  <si>
+    <t>20-TM3</t>
+  </si>
+  <si>
+    <t>宇昊通五金店</t>
+  </si>
+  <si>
+    <t>滑车</t>
+  </si>
+  <si>
+    <t>40003646337</t>
+  </si>
+  <si>
+    <t>creaby旗舰店</t>
+  </si>
+  <si>
+    <t>M2.5*16mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>水平探测</t>
+  </si>
+  <si>
+    <t>40151436582</t>
+  </si>
+  <si>
+    <t>44753078109</t>
+  </si>
+  <si>
+    <t>40150872890</t>
+  </si>
+  <si>
+    <t>40089954194</t>
+  </si>
+  <si>
+    <t>瓦通五金专营店</t>
+  </si>
+  <si>
+    <t>8984572298</t>
+  </si>
+  <si>
+    <t>上海仁玺电子</t>
+  </si>
+  <si>
+    <t>印尼产 SS-5GL</t>
+  </si>
+  <si>
+    <t>36299264965</t>
+  </si>
+  <si>
+    <t>品牌继电器</t>
+  </si>
+  <si>
+    <t>8455225076</t>
+  </si>
+  <si>
+    <t>3*100mm</t>
+  </si>
+  <si>
+    <t>UNITTA，需要询价</t>
+  </si>
+  <si>
+    <t>西格玛特动力传输</t>
+  </si>
+  <si>
+    <t>41911582347</t>
+  </si>
+  <si>
+    <t>华达五金店</t>
+  </si>
+  <si>
+    <t>M3欧标 T 型滑块</t>
+  </si>
+  <si>
+    <t>41970628579</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>45218854535</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1.75mm </t>
     </r>
@@ -770,443 +1208,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>直径，PLA</t>
-    </r>
-  </si>
-  <si>
-    <t>42432088725</t>
-  </si>
-  <si>
-    <t>心悦城商城</t>
-  </si>
-  <si>
-    <t>41938722596</t>
-  </si>
-  <si>
-    <t>E3D</t>
-  </si>
-  <si>
-    <t>微动开关</t>
-  </si>
-  <si>
-    <t>效应器</t>
-  </si>
-  <si>
-    <t>39519147869</t>
-  </si>
-  <si>
-    <t>底盘</t>
-  </si>
-  <si>
-    <t>44518399646</t>
-  </si>
-  <si>
-    <t>人人三维</t>
-  </si>
-  <si>
-    <r>
-      <t>E3D,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>米远程送料管</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E3D v6+2.0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配送0.8米远程送料管</t>
-    </r>
-  </si>
-  <si>
-    <t>43794905334</t>
-  </si>
-  <si>
-    <t>E3D v6+</t>
-  </si>
-  <si>
-    <t>39147972804</t>
-  </si>
-  <si>
-    <t>高硼硅玻璃，直径200mm，厚3mm</t>
-  </si>
-  <si>
-    <t>秦皇岛利东特种玻璃</t>
-  </si>
-  <si>
-    <t>斜杆</t>
-  </si>
-  <si>
-    <t>斜杆套件</t>
-  </si>
-  <si>
-    <t>45475115936</t>
-  </si>
-  <si>
-    <t>斜杆+效应器+斜杆滑车连接件+螺丝</t>
-  </si>
-  <si>
-    <t>520632284040</t>
-  </si>
-  <si>
-    <t>学生党3DIY创意馆</t>
-  </si>
-  <si>
-    <r>
-      <t>M3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鱼眼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+5*3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碳杆，已粘好</t>
-    </r>
-  </si>
-  <si>
-    <t>限位开关底座</t>
-  </si>
-  <si>
-    <t>滑块推杆座</t>
-  </si>
-  <si>
-    <t>斜杆套件已包含</t>
-  </si>
-  <si>
-    <t>非标件套装</t>
-  </si>
-  <si>
-    <t>滑块推杆座+效应器+限位开关底座+挤出机+自动调平感应座</t>
-  </si>
-  <si>
-    <t>45052661238</t>
-  </si>
-  <si>
-    <t>打印件</t>
-  </si>
-  <si>
-    <t>42759507561</t>
-  </si>
-  <si>
-    <t>MICROMAKE</t>
-  </si>
-  <si>
-    <t>41085699059</t>
-  </si>
-  <si>
-    <t>锐力斯传动总店</t>
-  </si>
-  <si>
-    <t>打印件，配螺丝</t>
-  </si>
-  <si>
-    <t>45755819186</t>
-  </si>
-  <si>
-    <t>碳管+球头/鱼眼</t>
-  </si>
-  <si>
-    <t>注塑件，鱼眼</t>
-  </si>
-  <si>
-    <t>14054947602</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台达，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6A</t>
-    </r>
-  </si>
-  <si>
-    <t>铭豪科技</t>
-  </si>
-  <si>
-    <t>39518671798</t>
-  </si>
-  <si>
-    <t>腾锋线材</t>
-  </si>
-  <si>
-    <r>
-      <t>SONY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（台达），6A</t>
-    </r>
-  </si>
-  <si>
-    <t>小齿距同步带同步带轮</t>
-  </si>
-  <si>
-    <t>37292680594</t>
-  </si>
-  <si>
-    <t>14.1/m</t>
-  </si>
-  <si>
-    <t>UNITTA</t>
-  </si>
-  <si>
-    <t>39909395806</t>
-  </si>
-  <si>
-    <t>2GT-6 同步带</t>
-  </si>
-  <si>
-    <t>500mm</t>
-  </si>
-  <si>
-    <t>42974167954</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欧姆龙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SS-5</t>
-    </r>
-  </si>
-  <si>
-    <t>450mm</t>
-  </si>
-  <si>
-    <t>上银</t>
-  </si>
-  <si>
-    <t>14821319932</t>
-  </si>
-  <si>
-    <t>上海恩瑞特传动科技</t>
-  </si>
-  <si>
-    <t>26759568854</t>
-  </si>
-  <si>
-    <t>上海勤慎机电</t>
-  </si>
-  <si>
-    <t>国产 500mm</t>
-  </si>
-  <si>
-    <t>13271784463</t>
-  </si>
-  <si>
-    <t>上海顺祥传动轴承</t>
-  </si>
-  <si>
-    <t>M3欧标 T 型螺母</t>
-  </si>
-  <si>
-    <t>M3*8mm 内六角螺丝</t>
-  </si>
-  <si>
-    <t>M3*25mm 内六角螺丝</t>
-  </si>
-  <si>
-    <t>法兰轴承，效应器</t>
-  </si>
-  <si>
-    <t>M3*35mm 内六角螺丝</t>
-  </si>
-  <si>
-    <t>皮带张紧</t>
-  </si>
-  <si>
-    <t>框架及大部分元件安装</t>
-  </si>
-  <si>
-    <t>M3尼龙防松自锁螺母</t>
-  </si>
-  <si>
-    <t>M3*20mm内六角螺丝</t>
-  </si>
-  <si>
-    <t>M2.5*12mm内六角螺丝</t>
-  </si>
-  <si>
-    <t>M3*6mm 内六角螺丝</t>
-  </si>
-  <si>
-    <t>滑轨</t>
-  </si>
-  <si>
-    <t>M3垫圈</t>
-  </si>
-  <si>
-    <t>16474621166</t>
-  </si>
-  <si>
-    <t>20-TM3</t>
-  </si>
-  <si>
-    <t>宇昊通五金店</t>
-  </si>
-  <si>
-    <t>滑车</t>
-  </si>
-  <si>
-    <t>40003646337</t>
-  </si>
-  <si>
-    <t>creaby旗舰店</t>
-  </si>
-  <si>
-    <t>M2.5*16mm内六角螺丝</t>
-  </si>
-  <si>
-    <t>水平探测</t>
-  </si>
-  <si>
-    <t>40151436582</t>
-  </si>
-  <si>
-    <t>44753078109</t>
-  </si>
-  <si>
-    <t>40150872890</t>
-  </si>
-  <si>
-    <t>40089954194</t>
-  </si>
-  <si>
-    <t>瓦通五金专营店</t>
-  </si>
-  <si>
-    <t>8984572298</t>
-  </si>
-  <si>
-    <t>上海仁玺电子</t>
-  </si>
-  <si>
-    <t>印尼产 SS-5GL</t>
-  </si>
-  <si>
-    <t>36299264965</t>
-  </si>
-  <si>
-    <t>品牌继电器</t>
-  </si>
-  <si>
-    <t>8455225076</t>
-  </si>
-  <si>
-    <t>3*100mm</t>
-  </si>
-  <si>
-    <t>UNITTA，需要询价</t>
-  </si>
-  <si>
-    <t>西格玛特动力传输</t>
-  </si>
-  <si>
-    <t>41911582347</t>
-  </si>
-  <si>
-    <t>华达五金店</t>
-  </si>
-  <si>
-    <t>M3欧标 T 型滑块</t>
-  </si>
-  <si>
-    <t>41970628579</t>
-  </si>
-  <si>
-    <t>done</t>
+      <t>直径，PLA, 1kg</t>
+    </r>
+  </si>
+  <si>
+    <t>44631332459</t>
+  </si>
+  <si>
+    <t>打印头风扇</t>
+  </si>
+  <si>
+    <t>522117368072</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1388,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1740,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1789,46 +1804,52 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="22">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="22">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1859,12 +1880,12 @@
         <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1">
@@ -1878,22 +1899,22 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1" ht="18">
       <c r="A8" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="22">
         <v>100</v>
@@ -1906,7 +1927,7 @@
         <v>45</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>76</v>
@@ -1927,19 +1948,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>191</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1">
@@ -1949,10 +1970,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="1" t="s">
@@ -1961,7 +1982,7 @@
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1">
@@ -1971,13 +1992,13 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>73</v>
@@ -1985,7 +2006,7 @@
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1">
@@ -1995,13 +2016,13 @@
         <v>4.78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>73</v>
@@ -2009,7 +2030,7 @@
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1">
@@ -2023,13 +2044,13 @@
         <v>0.54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>73</v>
@@ -2037,7 +2058,7 @@
     </row>
     <row r="14" spans="1:9" ht="18">
       <c r="A14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
@@ -2051,13 +2072,13 @@
         <v>1.32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>73</v>
@@ -2065,7 +2086,7 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1">
@@ -2079,13 +2100,13 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>73</v>
@@ -2093,7 +2114,7 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1">
@@ -2107,10 +2128,10 @@
         <v>0.96</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="1" t="s">
@@ -2119,7 +2140,7 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1">
@@ -2133,13 +2154,13 @@
         <v>0.36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>73</v>
@@ -2147,7 +2168,7 @@
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1">
@@ -2161,13 +2182,13 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>73</v>
@@ -2188,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="22">
         <v>3</v>
@@ -2201,13 +2222,13 @@
         <v>450</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="18">
@@ -2220,13 +2241,13 @@
         <v>648</v>
       </c>
       <c r="F22" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>149</v>
-      </c>
       <c r="H22" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1" ht="18">
@@ -2236,13 +2257,13 @@
         <v>279</v>
       </c>
       <c r="F23" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="H23" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="22" customFormat="1" ht="18">
@@ -2252,13 +2273,13 @@
         <v>279</v>
       </c>
       <c r="F24" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>73</v>
@@ -2273,7 +2294,7 @@
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1" ht="18">
       <c r="A26" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>62</v>
@@ -2291,7 +2312,7 @@
         <v>60</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>63</v>
@@ -2301,32 +2322,32 @@
       <c r="A27" s="25"/>
       <c r="B27" s="23"/>
       <c r="D27" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="22">
         <v>54</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="22" customFormat="1" ht="18">
       <c r="A28" s="25"/>
       <c r="B28" s="23"/>
       <c r="F28" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
@@ -2350,7 +2371,7 @@
         <v>57</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" ht="18">
@@ -2374,7 +2395,7 @@
         <v>59</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -2399,7 +2420,7 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="36">
@@ -2429,7 +2450,7 @@
         <v>82</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" ht="18">
@@ -2503,123 +2524,126 @@
         <v>83</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="54">
-      <c r="A36" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="22" customFormat="1" ht="54">
+      <c r="A36" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="1" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="22">
         <v>130</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="22">
         <v>130</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A39" s="25"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="22">
+        <v>50</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1">
-        <v>50</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A40" s="25"/>
+      <c r="B40" s="28"/>
+      <c r="E40" s="22">
+        <v>65</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="2" t="s">
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A41" s="25"/>
+      <c r="B41" s="28"/>
+      <c r="E41" s="22">
+        <v>75</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="E40" s="1">
-        <v>65</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="E41" s="1">
-        <v>75</v>
-      </c>
-      <c r="F41" s="3" t="s">
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="18">
+      <c r="A42" s="25"/>
+      <c r="B42" s="28"/>
+      <c r="E42" s="22">
+        <v>48</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="E42" s="1">
-        <v>48</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18">
@@ -2672,7 +2696,7 @@
     </row>
     <row r="48" spans="1:9" s="17" customFormat="1" ht="18">
       <c r="A48" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="16"/>
       <c r="D48" s="17">
@@ -2681,7 +2705,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
       <c r="H48" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>72</v>
@@ -2689,10 +2713,10 @@
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="18">
       <c r="A49" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>21</v>
@@ -2708,13 +2732,13 @@
         <v>70</v>
       </c>
       <c r="F50" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="H50" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="18">
@@ -2724,13 +2748,13 @@
         <v>75</v>
       </c>
       <c r="F51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="H51" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
@@ -2738,22 +2762,22 @@
     </row>
     <row r="53" spans="1:8" ht="18">
       <c r="A53" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1">
         <v>199</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2763,10 +2787,10 @@
     </row>
     <row r="55" spans="1:8" ht="18">
       <c r="A55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2775,15 +2799,24 @@
         <v>25</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
+      <c r="E56" s="1">
+        <v>28</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18">
       <c r="A57" s="4"/>
@@ -2791,7 +2824,7 @@
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="18">
       <c r="A58" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="23"/>
       <c r="D58" s="22">
@@ -2811,13 +2844,13 @@
         <v>45</v>
       </c>
       <c r="F59" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="H59" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
@@ -2828,10 +2861,10 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="36">
       <c r="A62" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -2844,13 +2877,13 @@
         <v>50</v>
       </c>
       <c r="F63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18">
@@ -2862,10 +2895,10 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="18">
       <c r="A66" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="22">
         <v>4</v>
@@ -2878,13 +2911,13 @@
         <v>7.64</v>
       </c>
       <c r="F66" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G66" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="H66" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="18">
@@ -2901,13 +2934,13 @@
         <v>7.6</v>
       </c>
       <c r="F67" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G67" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="H67" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="18">
@@ -2924,18 +2957,18 @@
         <v>12</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18">
       <c r="A69" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2963,13 +2996,13 @@
         <v>30</v>
       </c>
       <c r="F72" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="18">
@@ -2978,13 +3011,13 @@
         <v>28</v>
       </c>
       <c r="F73" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="H73" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3004,146 +3037,192 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:8" s="22" customFormat="1">
+      <c r="A77" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="1">
+      <c r="B77" s="23"/>
+      <c r="C77" s="22">
         <v>1</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="18">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="1">
-        <v>4</v>
-      </c>
-      <c r="D77" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="E77" s="1">
-        <f>D77*C77</f>
-        <v>26.8</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="18">
-      <c r="A78" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="1">
-        <v>126</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" s="22" customFormat="1">
+      <c r="B78" s="23"/>
+      <c r="E78" s="22">
+        <v>25</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" ht="18">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6.7</v>
       </c>
       <c r="E79" s="1">
-        <v>40</v>
+        <f>D79*C79</f>
+        <v>26.8</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18">
       <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>126</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18">
+      <c r="A81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>40</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18">
+      <c r="A82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="1">
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
         <v>31</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18">
-      <c r="A85" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>91</v>
+    <row r="83" spans="1:8" ht="18">
+      <c r="A83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18">
       <c r="A87" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="1">
+        <v>75</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" ht="18">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" ht="18">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="92" spans="1:8" ht="18">
+      <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:8" ht="18">
+      <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="33">
-      <c r="A89" s="4" t="s">
+    <row r="94" spans="1:8" ht="33">
+      <c r="A94" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18">
-      <c r="A90" s="4" t="s">
+    <row r="95" spans="1:8" ht="18">
+      <c r="A95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C95" s="1">
         <v>1000</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E95" s="1">
         <v>14</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="18">
-      <c r="A91" s="4" t="s">
+    </row>
+    <row r="96" spans="1:8" ht="18">
+      <c r="A96" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23415" yWindow="3480" windowWidth="24735" windowHeight="15990" tabRatio="500"/>
+    <workbookView xWindow="23020" yWindow="0" windowWidth="26900" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="204">
   <si>
     <t>Item</t>
   </si>
@@ -388,9 +388,6 @@
     </r>
   </si>
   <si>
-    <t>是否可以用欧标铝型材？</t>
-  </si>
-  <si>
     <t>普林特电子</t>
   </si>
   <si>
@@ -784,12 +781,6 @@
     <t>限位开关底座</t>
   </si>
   <si>
-    <t>滑块推杆座</t>
-  </si>
-  <si>
-    <t>斜杆套件已包含</t>
-  </si>
-  <si>
     <t>非标件套装</t>
   </si>
   <si>
@@ -902,18 +893,12 @@
     <t>M3*25mm 内六角螺丝</t>
   </si>
   <si>
-    <t>法兰轴承，效应器</t>
-  </si>
-  <si>
     <t>M3*35mm 内六角螺丝</t>
   </si>
   <si>
     <t>皮带张紧</t>
   </si>
   <si>
-    <t>框架及大部分元件安装</t>
-  </si>
-  <si>
     <t>M3尼龙防松自锁螺母</t>
   </si>
   <si>
@@ -926,9 +911,6 @@
     <t>M3*6mm 内六角螺丝</t>
   </si>
   <si>
-    <t>滑轨</t>
-  </si>
-  <si>
     <t>M3垫圈</t>
   </si>
   <si>
@@ -995,9 +977,6 @@
     <t>41970628579</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.75mm </t>
     </r>
@@ -1179,13 +1158,58 @@
   </si>
   <si>
     <t>台达，10A</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>M4*10mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>框架及大部分元件安装，框架应该用 M4代替</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>国产，质量差，退货</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>M4国标方螺母</t>
+  </si>
+  <si>
+    <t>框架，应该用 M4代替</t>
+  </si>
+  <si>
+    <t>可用欧标铝型材，但竖杆固定只能用国标方螺母</t>
+  </si>
+  <si>
+    <t>不需要这么多</t>
+  </si>
+  <si>
+    <t>基本上用不着，都用 M3*8</t>
+  </si>
+  <si>
+    <t>电线缠绕管</t>
+  </si>
+  <si>
+    <t>M3*16mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>挤出头安装</t>
+  </si>
+  <si>
+    <t>法兰轴承，效应器挂杆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1268,7 +1292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1304,6 +1328,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1349,7 +1389,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="34" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="51">
     <cellStyle name="Bad" xfId="34" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1377,6 +1417,14 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1384,15 +1432,18 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1718,13 +1769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="2" customWidth="1"/>
@@ -1733,7 +1784,7 @@
     <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.625" style="1"/>
   </cols>
@@ -1767,12 +1818,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C2" s="15">
         <v>9</v>
@@ -1781,12 +1832,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1">
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" s="15">
         <v>3</v>
@@ -1795,7 +1846,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
         <v>16</v>
@@ -1816,14 +1867,14 @@
         <v>18</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1843,15 +1894,15 @@
         <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1">
@@ -1865,22 +1916,24 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C8" s="15">
         <v>100</v>
@@ -1893,14 +1946,14 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="15">
@@ -1914,19 +1967,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1">
@@ -1936,19 +1989,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1">
@@ -1958,21 +2013,21 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1">
@@ -1982,859 +2037,878 @@
         <v>4.78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:E18" si="0">C13*D13</f>
-        <v>0.54</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="H13" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" ref="E14:E19" si="0">C14*D14</f>
+        <v>0.54</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
+      <c r="A15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>0.11</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1">
+      <c r="F15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.15</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1">
+      <c r="F16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>0.08</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1">
+      <c r="F17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
+      <c r="A18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>0.06</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1">
+      <c r="F18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" s="15" customFormat="1">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="15">
         <v>3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D23" s="15">
         <v>150</v>
       </c>
-      <c r="E21" s="15">
-        <f>C21*D21</f>
+      <c r="E23" s="15">
+        <f>C23*D23</f>
         <v>450</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="15" customFormat="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="15">
-        <v>648</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="15" customFormat="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
-      <c r="E23" s="15">
-        <v>279</v>
-      </c>
       <c r="F23" s="17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="15" customFormat="1">
+        <v>111</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A24" s="18"/>
       <c r="B24" s="16"/>
+      <c r="C24" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="15">
+        <v>648</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="E25" s="15">
         <v>279</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="10" customFormat="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="31.5">
-      <c r="A26" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="H25" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16"/>
       <c r="E26" s="15">
+        <v>279</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="18">
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="15">
         <v>25</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="D29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="15">
+        <v>56</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
-      <c r="D27" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="15">
-        <v>56</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="10" customFormat="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="31.5">
-      <c r="A29" s="18" t="s">
+      <c r="I29" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" ht="18">
+      <c r="A30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C31" s="15">
         <v>3</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D31" s="15">
         <v>7</v>
       </c>
-      <c r="E29" s="15">
-        <f>C29*D29</f>
+      <c r="E31" s="15">
+        <f>C31*D31</f>
         <v>21</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" s="15" customFormat="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15">
+      <c r="G31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15">
         <v>3</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D32" s="15">
         <v>8.5</v>
-      </c>
-      <c r="E30" s="15">
-        <f>C30*D30</f>
-        <v>25.5</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" s="15" customFormat="1">
-      <c r="A32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="15">
-        <v>6</v>
-      </c>
-      <c r="D32" s="15">
-        <v>2.5</v>
       </c>
       <c r="E32" s="15">
         <f>C32*D32</f>
+        <v>25.5</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18">
+      <c r="A33" s="4"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="15">
+        <v>6</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="15">
+        <f>C34*D34</f>
         <v>15</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" s="15" customFormat="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15">
+      <c r="G34" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15">
         <v>6</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D35" s="15">
         <v>1.5</v>
       </c>
-      <c r="E33" s="15">
-        <f>C33*D33</f>
+      <c r="E35" s="15">
+        <f>C35*D35</f>
         <v>9</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="F35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="31.5">
-      <c r="A34" s="4" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="36">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1">
+        <f>C$36*D$36</f>
+        <v>135</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="I36" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="15">
         <v>45</v>
       </c>
-      <c r="E34" s="1">
-        <f>C$34*D$34</f>
-        <v>135</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="F37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="15">
+        <v>88</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>65</v>
+      </c>
+      <c r="E39" s="1">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1">
-      <c r="A35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="15">
-        <v>45</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="15" customFormat="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="15">
-        <v>88</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="31.5">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>65</v>
-      </c>
-      <c r="E37" s="1">
-        <v>65</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" ht="47.25">
-      <c r="A38" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="I39" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="15" customFormat="1" ht="54">
+      <c r="A40" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" s="15" customFormat="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="15">
-        <v>130</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="15">
-        <v>130</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="15" customFormat="1">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="15">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
+      <c r="C42" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="15">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="15" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
+      <c r="C43" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="15">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G43" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="44" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="E44" s="15">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="15" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="E45" s="15">
+        <v>75</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="E46" s="15">
+        <v>48</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="E47" s="15">
         <v>27.7</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="F47" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="1">
+    </row>
+    <row r="48" spans="1:9" ht="18">
+      <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E48" s="1">
         <v>6.8</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4"/>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" s="15" customFormat="1">
-      <c r="A48" s="18" t="s">
+      <c r="F48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18">
+      <c r="A49" s="4"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D50" s="15">
         <v>2.1</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" s="15" customFormat="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="D49" s="15">
+      <c r="G50" s="17"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="D51" s="15">
         <v>3</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="10" customFormat="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" s="10" customFormat="1">
-      <c r="A51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="D51" s="10">
-        <v>3</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="G51" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="10" customFormat="1" ht="18">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A53" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="15" customFormat="1">
-      <c r="A52" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" s="15" customFormat="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="E53" s="15">
-        <v>70</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="15" customFormat="1">
+    <row r="54" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="E54" s="15">
+        <v>70</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="E55" s="15">
         <v>75</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" s="15" customFormat="1">
-      <c r="A56" s="23" t="s">
+      <c r="F55" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A57" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="15">
+        <v>199</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="15">
-        <v>199</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="15" customFormat="1" ht="31.5">
-      <c r="B57" s="16"/>
-      <c r="E57" s="15">
+      <c r="G57" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="15" customFormat="1" ht="32">
+      <c r="B58" s="16"/>
+      <c r="E58" s="15">
         <v>160</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="15" customFormat="1">
-      <c r="B58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:9" s="10" customFormat="1">
-      <c r="B59" s="13"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="13"/>
+      <c r="F58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="15" customFormat="1">
+      <c r="B59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1">
       <c r="B60" s="13"/>
@@ -2842,413 +2916,433 @@
       <c r="G60" s="11"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:9" s="15" customFormat="1">
-      <c r="A61" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="19" t="s">
+    <row r="61" spans="1:9" s="10" customFormat="1">
+      <c r="B61" s="13"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A62" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>25</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="15">
-        <v>1</v>
-      </c>
-      <c r="E61" s="15">
-        <v>25</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" s="15" customFormat="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="E62" s="15">
-        <v>28</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:9" s="15" customFormat="1">
+    <row r="63" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="E63" s="15">
+        <v>28</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="E64" s="15">
         <v>20</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="F64" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18">
       <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" s="10" customFormat="1" ht="30">
-      <c r="A66" s="8" t="s">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="18">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" ht="36">
+      <c r="A67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="10">
+        <v>50</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="10">
-        <v>50</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18">
       <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" s="15" customFormat="1">
-      <c r="A69" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="15">
-        <v>4</v>
-      </c>
-      <c r="D69" s="15">
-        <v>1.91</v>
-      </c>
-      <c r="E69" s="15">
-        <f>C69*D69</f>
-        <v>7.64</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="15" customFormat="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="16"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="18">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A70" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="C70" s="15">
         <v>4</v>
       </c>
       <c r="D70" s="15">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E70" s="15">
         <f>C70*D70</f>
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="15" customFormat="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A71" s="18"/>
       <c r="B71" s="16"/>
       <c r="C71" s="15">
         <v>4</v>
       </c>
       <c r="D71" s="15">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="E71" s="15">
         <f>C71*D71</f>
+        <v>7.6</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A72" s="18"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="15">
+        <v>4</v>
+      </c>
+      <c r="D72" s="15">
+        <v>3</v>
+      </c>
+      <c r="E72" s="15">
+        <f>C72*D72</f>
         <v>12</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F72" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="E74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="10" customFormat="1" ht="18">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="10">
+        <v>29</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="E73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="10" customFormat="1">
-      <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="10">
-        <v>29</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>64</v>
+      <c r="H75" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="E77" s="1">
-        <v>28</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>44</v>
+      <c r="D77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="10" customFormat="1">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:9" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>28</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="10" customFormat="1">
+      <c r="A79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="10">
+      <c r="B79" s="13"/>
+      <c r="C79" s="10">
         <v>1</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>25</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="10" t="s">
+      <c r="F79" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:9" ht="18">
+      <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C80" s="1">
         <v>4</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>6.7</v>
       </c>
-      <c r="E79" s="1">
-        <f>D79*C79</f>
+      <c r="E80" s="1">
+        <f>D80*C80</f>
         <v>26.8</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="15" customFormat="1">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A81" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="15" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" s="15" customFormat="1" ht="31.5">
-      <c r="A81" s="18"/>
-      <c r="B81" s="16"/>
-      <c r="E81" s="15">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" s="15" customFormat="1" ht="33">
+      <c r="A82" s="18"/>
+      <c r="B82" s="16"/>
+      <c r="E82" s="15">
         <v>130</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F82" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A83" s="18"/>
+      <c r="E83" s="15">
+        <v>102</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="1">
+        <v>66</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" s="16" t="s">
+      <c r="G87" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I81" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="15" customFormat="1">
-      <c r="A82" s="18"/>
-      <c r="E82" s="15">
-        <v>102</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="1">
-        <v>66</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="89" spans="1:9" ht="31.5">
-      <c r="A89" s="4" t="s">
+      <c r="I87" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="18">
+      <c r="A90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:9" ht="18">
+      <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="47.25">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:9" ht="33">
+      <c r="A92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
         <v>35</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="4" t="s">
+      <c r="I93" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18">
+      <c r="A94" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18">
+      <c r="A95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23020" yWindow="0" windowWidth="26900" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="23025" yWindow="60" windowWidth="25440" windowHeight="15930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
   <si>
     <t>Item</t>
   </si>
@@ -857,9 +857,6 @@
     </r>
   </si>
   <si>
-    <t>450mm</t>
-  </si>
-  <si>
     <t>上银</t>
   </si>
   <si>
@@ -875,9 +872,6 @@
     <t>上海勤慎机电</t>
   </si>
   <si>
-    <t>国产 500mm</t>
-  </si>
-  <si>
     <t>13271784463</t>
   </si>
   <si>
@@ -1203,13 +1197,34 @@
   </si>
   <si>
     <t>法兰轴承，效应器挂杆</t>
+  </si>
+  <si>
+    <t>国产,跟上海勤慎机电相同货源</t>
+  </si>
+  <si>
+    <t>38226154679</t>
+  </si>
+  <si>
+    <t>精嘉</t>
+  </si>
+  <si>
+    <t>仿HIWIN，实际国产</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>1set</t>
+  </si>
+  <si>
+    <t>MGN12H滑块 + 450mm滑轨，3套</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1444,6 +1459,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1769,13 +1789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="2" customWidth="1"/>
@@ -1818,12 +1838,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="2" spans="1:9" s="15" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="15">
         <v>9</v>
@@ -1832,12 +1852,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="3" spans="1:9" s="15" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="15">
         <v>3</v>
@@ -1846,7 +1866,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="4" spans="1:9" s="15" customFormat="1">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
         <v>16</v>
@@ -1867,14 +1887,14 @@
         <v>18</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1894,15 +1914,15 @@
         <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1">
@@ -1916,24 +1936,24 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1">
       <c r="A8" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="15">
         <v>100</v>
@@ -1946,14 +1966,14 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="9" spans="1:9" s="15" customFormat="1">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="15">
@@ -1967,19 +1987,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1">
@@ -1989,21 +2009,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1">
@@ -2013,21 +2033,21 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1">
@@ -2037,21 +2057,21 @@
         <v>4.78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1">
@@ -2059,12 +2079,12 @@
       </c>
       <c r="E13" s="10"/>
       <c r="H13" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
@@ -2078,21 +2098,21 @@
         <v>0.54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1">
@@ -2106,21 +2126,21 @@
         <v>1.32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1">
@@ -2134,21 +2154,21 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1">
@@ -2162,19 +2182,19 @@
         <v>0.96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1">
@@ -2188,21 +2208,21 @@
         <v>0.36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1">
@@ -2216,21 +2236,21 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1">
@@ -2238,38 +2258,38 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>50</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="23" spans="1:9" s="15" customFormat="1">
       <c r="A23" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="C23" s="15">
         <v>3</v>
@@ -2291,7 +2311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="24" spans="1:9" s="15" customFormat="1">
       <c r="A24" s="18"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15" t="s">
@@ -2301,271 +2321,269 @@
         <v>648</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="H24" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="15" customFormat="1">
       <c r="A25" s="18"/>
       <c r="B25" s="16"/>
       <c r="E25" s="15">
         <v>279</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="15" customFormat="1">
       <c r="A26" s="18"/>
       <c r="B26" s="16"/>
       <c r="E26" s="15">
         <v>279</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>129</v>
-      </c>
       <c r="H26" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="10" customFormat="1" ht="18">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A28" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="15" customFormat="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="15">
+        <v>407</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" s="15" customFormat="1" ht="31.5">
+      <c r="A29" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="B29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>25</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G29" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H29" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
-      <c r="D29" s="15" t="s">
+    <row r="30" spans="1:9" s="15" customFormat="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="D30" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>56</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G30" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H30" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="10" customFormat="1" ht="18">
-      <c r="A30" s="8"/>
-      <c r="B30" s="13"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A31" s="18" t="s">
+      <c r="I30" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" s="15" customFormat="1" ht="31.5">
+      <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="15">
-        <v>3</v>
-      </c>
-      <c r="D31" s="15">
-        <v>7</v>
-      </c>
-      <c r="E31" s="15">
-        <f>C31*D31</f>
-        <v>21</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A32" s="18"/>
-      <c r="B32" s="16"/>
       <c r="C32" s="15">
         <v>3</v>
       </c>
       <c r="D32" s="15">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="E32" s="15">
         <f>C32*D32</f>
+        <v>21</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15">
+        <v>3</v>
+      </c>
+      <c r="D33" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="E33" s="15">
+        <f>C33*D33</f>
         <v>25.5</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="F33" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="4"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A34" s="18" t="s">
+      <c r="H33" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1">
+      <c r="A35" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="15">
-        <v>6</v>
-      </c>
-      <c r="D34" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="E34" s="15">
-        <f>C34*D34</f>
-        <v>15</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A35" s="18"/>
-      <c r="B35" s="16"/>
       <c r="C35" s="15">
         <v>6</v>
       </c>
       <c r="D35" s="15">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E35" s="15">
         <f>C35*D35</f>
+        <v>15</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" s="15" customFormat="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15">
+        <v>6</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="15">
+        <f>C36*D36</f>
         <v>9</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="36">
-      <c r="A36" s="4" t="s">
+      <c r="H36" s="16"/>
+      <c r="I36" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="31.5">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>45</v>
       </c>
-      <c r="E36" s="1">
-        <f>C$36*D$36</f>
+      <c r="E37" s="1">
+        <f>C$37*D$37</f>
         <v>135</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A37" s="18" t="s">
+      <c r="I37" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1">
+      <c r="A38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="15">
-        <v>45</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A38" s="18"/>
       <c r="B38" s="19" t="s">
         <v>6</v>
       </c>
@@ -2573,79 +2591,84 @@
         <v>7</v>
       </c>
       <c r="E38" s="15">
+        <v>45</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="15" customFormat="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="15">
         <v>88</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="34">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:9" ht="31.5">
+      <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>65</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>65</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" ht="54">
-      <c r="A40" s="18" t="s">
+      <c r="I40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="15" customFormat="1" ht="47.25">
+      <c r="A41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="15">
-        <v>130</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" s="15" customFormat="1">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="15" t="s">
@@ -2655,266 +2678,279 @@
         <v>130</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="43" spans="1:9" s="15" customFormat="1">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="15">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>82</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="15" customFormat="1">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
+      <c r="C44" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="15">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="15" customFormat="1">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="E45" s="15">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="15" customFormat="1">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="E46" s="15">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="15" customFormat="1">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="E47" s="15">
+        <v>48</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="15" customFormat="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="21"/>
+      <c r="E48" s="15">
         <v>27.7</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="20" t="s">
+      <c r="F48" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H48" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="18">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A50" s="18" t="s">
+      <c r="I49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" s="15" customFormat="1">
+      <c r="A51" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B51" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <v>2.1</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
-      <c r="D51" s="15">
+      <c r="G51" s="17"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" s="15" customFormat="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="D52" s="15">
         <v>3</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="10" customFormat="1" ht="18">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A53" s="18" t="s">
+      <c r="H52" s="16"/>
+      <c r="I52" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="10" customFormat="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" s="15" customFormat="1">
+      <c r="A54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B54" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="15" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="E54" s="15">
-        <v>70</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="55" spans="1:9" s="15" customFormat="1">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="E55" s="15">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A57" s="23" t="s">
+    <row r="56" spans="1:9" s="15" customFormat="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="E56" s="15">
+        <v>75</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" s="15" customFormat="1">
+      <c r="A58" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B58" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>199</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G58" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H58" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="15" customFormat="1" ht="32">
-      <c r="B58" s="16"/>
-      <c r="E58" s="15">
+      <c r="I58" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="15" customFormat="1" ht="31.5">
+      <c r="B59" s="16"/>
+      <c r="E59" s="15">
         <v>160</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F59" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="15" customFormat="1">
-      <c r="B59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" s="10" customFormat="1">
-      <c r="B60" s="13"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="13"/>
+    </row>
+    <row r="60" spans="1:9" s="15" customFormat="1">
+      <c r="B60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:9" s="10" customFormat="1">
       <c r="B61" s="13"/>
@@ -2922,334 +2958,322 @@
       <c r="G61" s="11"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A62" s="18" t="s">
+    <row r="62" spans="1:9" s="10" customFormat="1">
+      <c r="B62" s="13"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" s="15" customFormat="1">
+      <c r="A63" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <v>1</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>25</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F63" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G63" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="E63" s="15">
-        <v>28</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:9" s="15" customFormat="1" ht="18">
+    <row r="64" spans="1:9" s="15" customFormat="1">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="E64" s="15">
+        <v>28</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" s="15" customFormat="1">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="E65" s="15">
         <v>20</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G64" s="20" t="s">
+      <c r="F65" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="18">
+      <c r="H65" s="16"/>
+      <c r="I65" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" s="10" customFormat="1" ht="36">
-      <c r="A67" s="8" t="s">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" s="10" customFormat="1" ht="30">
+      <c r="A68" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>50</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I68" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="18">
+    <row r="69" spans="1:9">
       <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A70" s="23" t="s">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" s="15" customFormat="1">
+      <c r="A71" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="15">
-        <v>4</v>
-      </c>
-      <c r="D70" s="15">
-        <v>1.91</v>
-      </c>
-      <c r="E70" s="15">
-        <f>C70*D70</f>
-        <v>7.64</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A71" s="18"/>
-      <c r="B71" s="16"/>
       <c r="C71" s="15">
         <v>4</v>
       </c>
       <c r="D71" s="15">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E71" s="15">
         <f>C71*D71</f>
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="15" customFormat="1" ht="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="15" customFormat="1">
       <c r="A72" s="18"/>
       <c r="B72" s="16"/>
       <c r="C72" s="15">
         <v>4</v>
       </c>
       <c r="D72" s="15">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="E72" s="15">
         <f>C72*D72</f>
+        <v>7.6</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="15" customFormat="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="15">
+        <v>4</v>
+      </c>
+      <c r="D73" s="15">
+        <v>3</v>
+      </c>
+      <c r="E73" s="15">
+        <f>C73*D73</f>
         <v>12</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F73" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G73" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H72" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="22" t="s">
+      <c r="H73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="E74" s="1" t="s">
+    <row r="75" spans="1:9">
+      <c r="E75" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="10" customFormat="1" ht="18">
-      <c r="A75" t="s">
+    <row r="76" spans="1:9" s="10" customFormat="1" ht="18">
+      <c r="A76" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B76" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>29</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F76" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G75" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18">
-      <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="1">
-        <v>28</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>44</v>
+      <c r="D78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="10" customFormat="1">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:9">
+      <c r="A79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>28</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="10" customFormat="1">
+      <c r="A80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="10">
+      <c r="B80" s="13"/>
+      <c r="C80" s="10">
         <v>1</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>25</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G79" s="11" t="s">
+      <c r="F80" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="10" t="s">
+      <c r="H80" s="13"/>
+      <c r="I80" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>4</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <v>6.7</v>
       </c>
-      <c r="E80" s="1">
-        <f>D80*C80</f>
+      <c r="E81" s="1">
+        <f>D81*C81</f>
         <v>26.8</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:9" s="15" customFormat="1">
+      <c r="A82" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="15" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" s="15" customFormat="1" ht="33">
-      <c r="A82" s="18"/>
-      <c r="B82" s="16"/>
-      <c r="E82" s="15">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="19"/>
+    </row>
+    <row r="83" spans="1:9" s="15" customFormat="1" ht="31.5">
+      <c r="A83" s="18"/>
+      <c r="B83" s="16"/>
+      <c r="E83" s="15">
         <v>130</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="15" customFormat="1" ht="18">
-      <c r="A83" s="18"/>
-      <c r="E83" s="15">
-        <v>102</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>176</v>
@@ -3260,89 +3284,107 @@
       <c r="H83" s="16" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
+      <c r="I83" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A84" s="18"/>
+      <c r="E84" s="15">
+        <v>102</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="409.6">
+      <c r="A86" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>1</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="18">
-      <c r="A87" t="s">
+      <c r="I86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="B88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="1">
         <v>66</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="18">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="90" spans="1:9" ht="18">
-      <c r="A90" s="4" t="s">
+      <c r="F88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="31.5">
+      <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:9" ht="47.25">
+      <c r="A93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
         <v>35</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18">
-      <c r="A94" s="4" t="s">
+      <c r="I94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18">
-      <c r="A95" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>189</v>
+    <row r="96" spans="1:9">
+      <c r="A96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="60" windowWidth="25440" windowHeight="15930" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24500" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
   <si>
     <t>Item</t>
   </si>
@@ -857,6 +857,9 @@
     </r>
   </si>
   <si>
+    <t>450mm</t>
+  </si>
+  <si>
     <t>上银</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
     <t>上海勤慎机电</t>
   </si>
   <si>
+    <t>国产 500mm</t>
+  </si>
+  <si>
     <t>13271784463</t>
   </si>
   <si>
@@ -1199,7 +1205,7 @@
     <t>法兰轴承，效应器挂杆</t>
   </si>
   <si>
-    <t>国产,跟上海勤慎机电相同货源</t>
+    <t>1set</t>
   </si>
   <si>
     <t>38226154679</t>
@@ -1209,22 +1215,13 @@
   </si>
   <si>
     <t>仿HIWIN，实际国产</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>1set</t>
-  </si>
-  <si>
-    <t>MGN12H滑块 + 450mm滑轨，3套</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1307,7 +1304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1343,6 +1340,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1404,7 +1403,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="34" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Bad" xfId="34" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1440,6 +1439,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1455,15 +1455,11 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1791,11 +1787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="2" customWidth="1"/>
@@ -1838,12 +1834,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="15">
         <v>9</v>
@@ -1852,12 +1848,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1">
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" s="15">
         <v>3</v>
@@ -1866,7 +1862,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
         <v>16</v>
@@ -1887,14 +1883,14 @@
         <v>18</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1914,15 +1910,15 @@
         <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1">
@@ -1936,24 +1932,24 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A8" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="15">
         <v>100</v>
@@ -1966,14 +1962,14 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="15">
@@ -1987,19 +1983,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1">
@@ -2009,21 +2005,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1">
@@ -2033,21 +2029,21 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1">
@@ -2057,21 +2053,21 @@
         <v>4.78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="1">
@@ -2079,12 +2075,12 @@
       </c>
       <c r="E13" s="10"/>
       <c r="H13" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
@@ -2098,21 +2094,21 @@
         <v>0.54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1">
@@ -2126,21 +2122,21 @@
         <v>1.32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1">
@@ -2154,21 +2150,21 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1">
@@ -2182,19 +2178,19 @@
         <v>0.96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1">
@@ -2208,21 +2204,21 @@
         <v>0.36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1">
@@ -2236,21 +2232,21 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1">
@@ -2258,38 +2254,38 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1">
         <v>50</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="15" customFormat="1">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:9" s="15" customFormat="1" ht="18">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="C23" s="15">
         <v>3</v>
@@ -2311,7 +2307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="15" customFormat="1">
+    <row r="24" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A24" s="18"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15" t="s">
@@ -2321,85 +2317,85 @@
         <v>648</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="25" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A25" s="18"/>
       <c r="B25" s="16"/>
       <c r="E25" s="15">
         <v>279</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G25" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="26" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A26" s="18"/>
       <c r="B26" s="16"/>
       <c r="E26" s="15">
         <v>279</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A27" s="18"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E27" s="15">
         <v>407</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="10" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A28" s="8"/>
       <c r="B28" s="13"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="31.5">
+    <row r="29" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A29" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>75</v>
@@ -2417,7 +2413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="15" customFormat="1">
+    <row r="30" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A30" s="18"/>
       <c r="B30" s="16"/>
       <c r="D30" s="15" t="s">
@@ -2436,17 +2432,17 @@
         <v>119</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="10" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A31" s="8"/>
       <c r="B31" s="13"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="31.5">
+    <row r="32" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2467,7 @@
       </c>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1">
+    <row r="33" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A33" s="18"/>
       <c r="B33" s="16"/>
       <c r="C33" s="15">
@@ -2485,23 +2481,23 @@
         <v>25.5</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>111</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="4"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="15" customFormat="1">
+    <row r="35" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A35" s="18" t="s">
         <v>9</v>
       </c>
@@ -2522,11 +2518,11 @@
         <v>53</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:9" s="15" customFormat="1">
+    <row r="36" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A36" s="18"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15">
@@ -2547,10 +2543,10 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="31.5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="36">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -2577,10 +2573,10 @@
         <v>72</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A38" s="18" t="s">
         <v>24</v>
       </c>
@@ -2603,10 +2599,10 @@
         <v>27</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="15" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="s">
         <v>6</v>
@@ -2625,7 +2621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.5">
+    <row r="40" spans="1:9" ht="34">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -2651,10 +2647,10 @@
         <v>73</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="15" customFormat="1" ht="47.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="15" customFormat="1" ht="54">
       <c r="A41" s="18" t="s">
         <v>76</v>
       </c>
@@ -2668,7 +2664,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:9" s="15" customFormat="1">
+    <row r="42" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="15" t="s">
@@ -2687,7 +2683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1">
+    <row r="43" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="15" t="s">
@@ -2706,7 +2702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="15" customFormat="1">
+    <row r="44" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A44" s="18"/>
       <c r="B44" s="21"/>
       <c r="C44" s="15" t="s">
@@ -2725,7 +2721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="15" customFormat="1">
+    <row r="45" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="E45" s="15">
@@ -2741,7 +2737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="15" customFormat="1">
+    <row r="46" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A46" s="18"/>
       <c r="B46" s="21"/>
       <c r="E46" s="15">
@@ -2757,7 +2753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="15" customFormat="1">
+    <row r="47" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="E47" s="15">
@@ -2773,28 +2769,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="15" customFormat="1">
+    <row r="48" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A48" s="18"/>
       <c r="B48" s="21"/>
       <c r="E48" s="15">
         <v>27.7</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2803,20 +2799,20 @@
         <v>6.8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>69</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="4"/>
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="1:9" s="15" customFormat="1">
+    <row r="51" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A51" s="18" t="s">
         <v>56</v>
       </c>
@@ -2832,7 +2828,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:9" s="15" customFormat="1">
+    <row r="52" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A52" s="18"/>
       <c r="B52" s="21"/>
       <c r="D52" s="15">
@@ -2846,17 +2842,17 @@
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="10" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="10" customFormat="1" ht="18">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:9" s="15" customFormat="1">
+    <row r="54" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A54" s="18" t="s">
         <v>97</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="15" customFormat="1">
+    <row r="55" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="E55" s="15">
@@ -2889,7 +2885,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="15" customFormat="1">
+    <row r="56" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="E56" s="15">
@@ -2905,10 +2901,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="18">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:9" s="15" customFormat="1">
+    <row r="58" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A58" s="23" t="s">
         <v>98</v>
       </c>
@@ -2928,22 +2924,22 @@
         <v>114</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="15" customFormat="1" ht="31.5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="15" customFormat="1" ht="32">
       <c r="B59" s="16"/>
       <c r="E59" s="15">
         <v>160</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="15" customFormat="1">
@@ -2964,7 +2960,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" s="15" customFormat="1">
+    <row r="63" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A63" s="18" t="s">
         <v>87</v>
       </c>
@@ -2985,45 +2981,45 @@
       </c>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:9" s="15" customFormat="1">
+    <row r="64" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="E64" s="15">
         <v>28</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="1:9" s="15" customFormat="1">
+    <row r="65" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="E65" s="15">
         <v>20</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="18">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:9" s="10" customFormat="1" ht="30">
+    <row r="68" spans="1:9" s="10" customFormat="1" ht="36">
       <c r="A68" s="8" t="s">
         <v>105</v>
       </c>
@@ -3046,14 +3042,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="18">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="18">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:9" s="15" customFormat="1">
+    <row r="71" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A71" s="23" t="s">
         <v>85</v>
       </c>
@@ -3071,16 +3067,16 @@
         <v>7.64</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="15" customFormat="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A72" s="18"/>
       <c r="B72" s="16"/>
       <c r="C72" s="15">
@@ -3094,16 +3090,16 @@
         <v>7.6</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G72" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="73" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A73" s="18"/>
       <c r="B73" s="16"/>
       <c r="C73" s="15">
@@ -3123,10 +3119,10 @@
         <v>89</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3153,16 +3149,16 @@
         <v>29</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>115</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3170,7 +3166,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -3185,7 +3181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="18">
       <c r="A79" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>25</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>89</v>
@@ -3230,7 +3226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="18">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="15" customFormat="1">
+    <row r="82" spans="1:9" s="15" customFormat="1" ht="18">
       <c r="A82" s="18" t="s">
         <v>45</v>
       </c>
@@ -3269,23 +3265,23 @@
       <c r="G82" s="17"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:9" s="15" customFormat="1" ht="31.5">
+    <row r="83" spans="1:9" s="15" customFormat="1" ht="33">
       <c r="A83" s="18"/>
       <c r="B83" s="16"/>
       <c r="E83" s="15">
         <v>130</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>69</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="15" customFormat="1" ht="18">
@@ -3294,16 +3290,16 @@
         <v>102</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>69</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -3311,33 +3307,33 @@
         <v>1</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18">
       <c r="A88" t="s">
         <v>60</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E88" s="1">
         <v>66</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18">
       <c r="A89" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="31.5">
+    <row r="91" spans="1:9" ht="18">
       <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="18">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="47.25">
+    <row r="93" spans="1:9" ht="33">
       <c r="A93" s="4" t="s">
         <v>34</v>
       </c>
@@ -3366,25 +3362,25 @@
         <v>35</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18">
       <c r="A95" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="18">
       <c r="A96" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="24200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="2140" windowWidth="24400" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kossel" sheetId="1" r:id="rId1"/>
+    <sheet name="adjustment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="245">
   <si>
     <t>Item</t>
   </si>
@@ -93,8 +94,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>UHU</t>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>共约4米</t>
+  </si>
+  <si>
+    <t>MGN12H 直线滑轨</t>
+  </si>
+  <si>
+    <t>欧标</t>
+  </si>
+  <si>
+    <t>送料步进电机</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>521771801250</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>远程挤出机</t>
+  </si>
+  <si>
+    <r>
+      <t>42</t>
     </r>
     <r>
       <rPr>
@@ -104,43 +135,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>固体胶可以代替美纹纸</t>
-    </r>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>共约4米</t>
-  </si>
-  <si>
-    <t>MGN12H 直线滑轨</t>
-  </si>
-  <si>
-    <t>欧标</t>
-  </si>
-  <si>
-    <t>送料步进电机</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>521771801250</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>远程挤出机</t>
-  </si>
-  <si>
-    <r>
-      <t>42</t>
-    </r>
+      <t xml:space="preserve">步进（NEMA17），机身长度63mm，D 轴 </t>
+    </r>
+  </si>
+  <si>
+    <t>45550954200</t>
+  </si>
+  <si>
+    <t>扳机型，已配接头</t>
+  </si>
+  <si>
+    <t>马蹄型，无接头、送丝轮？</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>RAMPS1.4</t>
+  </si>
+  <si>
+    <t>12V &gt;5A</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -149,28 +165,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">步进（NEMA17），机身长度63mm，D 轴 </t>
-    </r>
-  </si>
-  <si>
-    <t>45550954200</t>
-  </si>
-  <si>
-    <t>扳机型，已配接头</t>
-  </si>
-  <si>
-    <t>马蹄型，无接头、送丝轮？</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>RAMPS1.4</t>
-  </si>
-  <si>
-    <t>12V &gt;5A</t>
-  </si>
-  <si>
+      <t>精度0.1即可，0.02精度为佳，长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300mm</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -179,7 +185,115 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>精度0.1即可，0.02精度为佳，长度</t>
+      <t>以上</t>
+    </r>
+  </si>
+  <si>
+    <t>242型，颜色蓝色，温度范围-50~150℃，固化时间20min/24h(初固/全固)</t>
+  </si>
+  <si>
+    <t>螺纹胶</t>
+  </si>
+  <si>
+    <t>扎带</t>
+  </si>
+  <si>
+    <t>润滑黄油</t>
+  </si>
+  <si>
+    <t>3949282634</t>
+  </si>
+  <si>
+    <t>4094495224</t>
+  </si>
+  <si>
+    <r>
+      <t>4988</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步进电机驱动</t>
+    </r>
+  </si>
+  <si>
+    <t>2A电流的绿色4988驱动</t>
+  </si>
+  <si>
+    <t>附送散热片及双面硅胶</t>
+  </si>
+  <si>
+    <t>Reprap2004</t>
+  </si>
+  <si>
+    <r>
+      <t>LCD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>38267240503</t>
+  </si>
+  <si>
+    <t>控制电路套件</t>
+  </si>
+  <si>
+    <t>电路板散热风扇</t>
+  </si>
+  <si>
+    <t>~40</t>
+  </si>
+  <si>
+    <t>20~27</t>
+  </si>
+  <si>
+    <t>37933530722</t>
+  </si>
+  <si>
+    <t>齿宽7mm，齿距2mm，5mm孔径，齿数16齿</t>
+  </si>
+  <si>
+    <t>36316218657</t>
+  </si>
+  <si>
+    <t>F623zz</t>
+  </si>
+  <si>
+    <t>38330349569</t>
+  </si>
+  <si>
+    <t>36528715418</t>
+  </si>
+  <si>
+    <t>要买好点的？</t>
+  </si>
+  <si>
+    <t>四氟管</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Hannotate SC Bold"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内径</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +303,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>300mm</t>
+      <t>2mm</t>
     </r>
     <r>
       <rPr>
@@ -199,30 +313,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>以上</t>
-    </r>
-  </si>
-  <si>
-    <t>242型，颜色蓝色，温度范围-50~150℃，固化时间20min/24h(初固/全固)</t>
-  </si>
-  <si>
-    <t>螺纹胶</t>
-  </si>
-  <si>
-    <t>扎带</t>
-  </si>
-  <si>
-    <t>润滑黄油</t>
-  </si>
-  <si>
-    <t>3949282634</t>
-  </si>
-  <si>
-    <t>4094495224</t>
-  </si>
-  <si>
-    <r>
-      <t>4988</t>
+      <t>外径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4mm</t>
     </r>
     <r>
       <rPr>
@@ -232,21 +333,42 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>步进电机驱动</t>
-    </r>
-  </si>
-  <si>
-    <t>2A电流的绿色4988驱动</t>
-  </si>
-  <si>
-    <t>附送散热片及双面硅胶</t>
-  </si>
-  <si>
-    <t>Reprap2004</t>
-  </si>
-  <si>
-    <r>
-      <t>LCD</t>
+      <t>，65cm</t>
+    </r>
+  </si>
+  <si>
+    <t>21657103024</t>
+  </si>
+  <si>
+    <t>43015114835</t>
+  </si>
+  <si>
+    <t>打印耗材</t>
+  </si>
+  <si>
+    <t>43119800256</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>36456442504</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>广东华通铝业</t>
+  </si>
+  <si>
+    <r>
+      <t>kossel</t>
     </r>
     <r>
       <rPr>
@@ -256,49 +378,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>模块</t>
-    </r>
-  </si>
-  <si>
-    <t>38267240503</t>
-  </si>
-  <si>
-    <t>控制电路套件</t>
-  </si>
-  <si>
-    <t>电路板散热风扇</t>
-  </si>
-  <si>
-    <t>~40</t>
-  </si>
-  <si>
-    <t>20~27</t>
-  </si>
-  <si>
-    <t>37933530722</t>
-  </si>
-  <si>
-    <t>齿宽7mm，齿距2mm，5mm孔径，齿数16齿</t>
-  </si>
-  <si>
-    <t>36316218657</t>
-  </si>
-  <si>
-    <t>F623zz</t>
-  </si>
-  <si>
-    <t>38330349569</t>
-  </si>
-  <si>
-    <t>36528715418</t>
-  </si>
-  <si>
-    <t>要买好点的？</t>
-  </si>
-  <si>
-    <t>四氟管</t>
-  </si>
-  <si>
+      <t>铝合金件</t>
+    </r>
+  </si>
+  <si>
+    <t>普林特电子</t>
+  </si>
+  <si>
+    <t>乐清宇辉精密电机</t>
+  </si>
+  <si>
+    <r>
+      <t>42BYGH47-401A, 0.55Nm</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -307,17 +399,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>内径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2mm</t>
+      <t>，1.5A；加装杜邦4pin端子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42BYGH60-401A, 0.7Nm</t>
     </r>
     <r>
       <rPr>
@@ -327,118 +414,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>外径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，65cm</t>
-    </r>
-  </si>
-  <si>
-    <t>21657103024</t>
-  </si>
-  <si>
-    <t>43015114835</t>
-  </si>
-  <si>
-    <t>打印耗材</t>
-  </si>
-  <si>
-    <t>43119800256</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>36456442504</t>
-  </si>
-  <si>
-    <t>Seller</t>
-  </si>
-  <si>
-    <t>广东华通铝业</t>
-  </si>
-  <si>
-    <r>
-      <t>kossel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铝合金件</t>
-    </r>
-  </si>
-  <si>
-    <t>普林特电子</t>
-  </si>
-  <si>
-    <t>乐清宇辉精密电机</t>
-  </si>
-  <si>
-    <r>
-      <t>42BYGH47-401A, 0.55Nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>，1.5A；加装杜邦4pin端子</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>42BYGH60-401A, 0.7Nm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Hannotate SC Bold"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，1.5A；加装杜邦4pin端子</t>
-    </r>
-  </si>
-  <si>
     <t>43459032197</t>
   </si>
   <si>
     <t>6.5/m</t>
-  </si>
-  <si>
-    <t>j-head 挤出头</t>
   </si>
   <si>
     <t>39595809946</t>
@@ -1293,13 +1276,61 @@
   <si>
     <t>MEGA2560+RAMPS+2004LCD+4988*5+散热片
 REPRAP_DISCOUNT_SMART_CONTROLLER</t>
+  </si>
+  <si>
+    <t>delta_ndstop_adj</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>delta_height</t>
+  </si>
+  <si>
+    <t>delta_diagonal_rod</t>
+  </si>
+  <si>
+    <t>delta_radius</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>X_Tower</t>
+  </si>
+  <si>
+    <t>Y_Tower</t>
+  </si>
+  <si>
+    <t>Z_Tower</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>PVP材质固体胶可以代替美纹纸，牌子不限</t>
+  </si>
+  <si>
+    <t>导热胶</t>
+  </si>
+  <si>
+    <t>PC4-01直插接头</t>
+  </si>
+  <si>
+    <t>挤出头</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1330,6 +1361,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1345,7 +1383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1368,8 +1406,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1438,8 +1485,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1481,8 +1544,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1526,6 +1594,14 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1550,6 +1626,14 @@
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1884,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1915,25 +1999,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -1941,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="15">
         <v>9</v>
@@ -1955,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="15">
         <v>3</v>
@@ -1967,7 +2051,7 @@
     <row r="4" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="15">
         <v>12</v>
@@ -1976,26 +2060,26 @@
         <v>50</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2009,24 +2093,24 @@
         <v>160</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1">
@@ -2040,27 +2124,27 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="15">
         <v>100</v>
@@ -2073,10 +2157,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="19"/>
     </row>
@@ -2094,22 +2178,22 @@
         <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1">
@@ -2119,24 +2203,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1">
@@ -2146,24 +2230,24 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1">
@@ -2173,34 +2257,34 @@
         <v>4.78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="5"/>
       <c r="E13" s="10"/>
       <c r="H13" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
@@ -2208,12 +2292,12 @@
       </c>
       <c r="E14" s="10"/>
       <c r="H14" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="1">
@@ -2227,24 +2311,24 @@
         <v>0.54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1">
@@ -2258,24 +2342,24 @@
         <v>1.32</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1">
@@ -2289,24 +2373,24 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1">
@@ -2320,22 +2404,22 @@
         <v>0.96</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1">
@@ -2349,24 +2433,24 @@
         <v>0.36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1">
@@ -2380,24 +2464,24 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1">
@@ -2405,31 +2489,31 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1">
         <v>50</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -2439,10 +2523,10 @@
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="15">
         <v>3</v>
@@ -2455,13 +2539,13 @@
         <v>450</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2474,13 +2558,13 @@
         <v>648</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2490,13 +2574,13 @@
         <v>279</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2506,41 +2590,41 @@
         <v>279</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="16"/>
       <c r="C28" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" s="15">
         <v>407</v>
       </c>
       <c r="F28" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="I28" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2552,50 +2636,50 @@
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="38" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="15">
         <v>25</v>
       </c>
       <c r="F30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="15">
         <v>56</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2610,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15">
         <v>3</v>
@@ -2623,10 +2707,10 @@
         <v>21</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="16"/>
     </row>
@@ -2644,19 +2728,19 @@
         <v>25.5</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -2668,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="15">
         <v>6</v>
@@ -2681,10 +2765,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="16"/>
     </row>
@@ -2702,17 +2786,17 @@
         <v>9</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="38" x14ac:dyDescent="0.3">
@@ -2720,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -2733,24 +2817,24 @@
         <v>135</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>6</v>
@@ -2762,19 +2846,19 @@
         <v>45</v>
       </c>
       <c r="F39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="I39" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2789,19 +2873,19 @@
         <v>88</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="38" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2813,34 +2897,36 @@
         <v>65</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="16" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="43" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
@@ -2852,13 +2938,13 @@
         <v>130</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2871,13 +2957,13 @@
         <v>130</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2890,13 +2976,13 @@
         <v>50</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2906,13 +2992,13 @@
         <v>65</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2922,13 +3008,13 @@
         <v>75</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2938,13 +3024,13 @@
         <v>48</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -2954,24 +3040,24 @@
         <v>27.7</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2980,45 +3066,45 @@
         <v>6.8</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -3027,16 +3113,16 @@
     </row>
     <row r="53" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="D53" s="15">
         <v>2.1</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="16"/>
@@ -3048,17 +3134,17 @@
         <v>3</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3070,19 +3156,19 @@
     </row>
     <row r="56" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="16"/>
       <c r="I56" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3092,13 +3178,13 @@
         <v>70</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3108,13 +3194,13 @@
         <v>75</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -3122,43 +3208,43 @@
     </row>
     <row r="60" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E60" s="15">
         <v>199</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16"/>
       <c r="E61" s="15">
         <v>160</v>
       </c>
       <c r="F61" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3181,10 +3267,10 @@
     </row>
     <row r="65" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -3193,10 +3279,10 @@
         <v>25</v>
       </c>
       <c r="F65" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="H65" s="16"/>
     </row>
@@ -3207,10 +3293,10 @@
         <v>28</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H66" s="16"/>
     </row>
@@ -3221,17 +3307,17 @@
         <v>20</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -3243,25 +3329,25 @@
     </row>
     <row r="70" spans="1:10" s="10" customFormat="1" ht="38" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="10">
         <v>50</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -3273,10 +3359,10 @@
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="15">
         <v>4</v>
@@ -3289,13 +3375,13 @@
         <v>7.64</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3312,13 +3398,13 @@
         <v>7.6</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3335,24 +3421,24 @@
         <v>12</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -3365,75 +3451,75 @@
         <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" s="10">
         <v>29</v>
       </c>
       <c r="F78" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G78" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>187</v>
-      </c>
       <c r="J78" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -3442,43 +3528,43 @@
         <v>28</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="10">
         <v>1</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" s="10">
         <v>25</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C83" s="1">
         <v>4</v>
@@ -3491,18 +3577,18 @@
         <v>26.8</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="15" t="s">
@@ -3512,26 +3598,26 @@
       <c r="G84" s="17"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:10" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="16"/>
       <c r="E85" s="15">
         <v>130</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
@@ -3540,35 +3626,35 @@
         <v>102</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
@@ -3581,16 +3667,16 @@
         <v>132</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="19" x14ac:dyDescent="0.3">
@@ -3601,110 +3687,110 @@
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>14</v>
+      <c r="H94" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="50" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E96" s="1">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="19" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E100" s="1">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
@@ -3717,20 +3803,232 @@
         <v>3</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-6.2</v>
+      </c>
+      <c r="B3">
+        <v>-7.2</v>
+      </c>
+      <c r="C3">
+        <v>-5.3</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>214</v>
+      </c>
+      <c r="F3">
+        <v>103</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-5.5</v>
+      </c>
+      <c r="B4">
+        <v>-6.5</v>
+      </c>
+      <c r="C4">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>214</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>-5.5</v>
+      </c>
+      <c r="B5" s="25">
+        <v>-6.6</v>
+      </c>
+      <c r="C5" s="25">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D5" s="25">
+        <v>250</v>
+      </c>
+      <c r="E5" s="25">
+        <v>214</v>
+      </c>
+      <c r="F5" s="25">
+        <v>101.2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-5.3</v>
+      </c>
+      <c r="B8">
+        <v>-6.5</v>
+      </c>
+      <c r="C8">
+        <v>-4.5</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>-0.1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoliang/Projects/KosselPrinter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoliang/projects/KosselPrinter/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035B856A-9B05-4549-B55A-D84225FD4005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25400" yWindow="4340" windowWidth="25080" windowHeight="18720" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="9620" windowWidth="26460" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kossel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="266">
   <si>
     <t>Item</t>
   </si>
@@ -1155,9 +1162,6 @@
     <t>嘉利保点子</t>
   </si>
   <si>
-    <t>42BYGH47</t>
-  </si>
-  <si>
     <t>42769125555</t>
   </si>
   <si>
@@ -1279,13 +1283,19 @@
   </si>
   <si>
     <t>M3*14mm内六角螺丝</t>
+  </si>
+  <si>
+    <t>MK8, 铝</t>
+  </si>
+  <si>
+    <t>42BYGH47-1704A, 0.55Nm, 1.7A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1720,6 +1730,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2046,14 +2059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="2" customWidth="1"/>
@@ -2067,7 +2080,7 @@
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2112,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2126,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2127,7 +2140,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
@@ -2154,11 +2167,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19">
       <c r="A5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="40">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2187,7 +2200,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20">
       <c r="A7" s="8" t="s">
         <v>146</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A8" s="18" t="s">
         <v>117</v>
       </c>
@@ -2243,7 +2256,7 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="15">
@@ -2270,7 +2283,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20">
       <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
@@ -2297,7 +2310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20">
       <c r="A11" s="4" t="s">
         <v>125</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20">
       <c r="A12" s="4" t="s">
         <v>118</v>
       </c>
@@ -2351,7 +2364,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20">
       <c r="A13" s="4" t="s">
         <v>191</v>
       </c>
@@ -2361,15 +2374,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19">
       <c r="A14" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="5"/>
       <c r="E14" s="10"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20">
       <c r="A15" s="4" t="s">
         <v>123</v>
       </c>
@@ -2400,7 +2413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20">
       <c r="A16" s="4" t="s">
         <v>119</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20">
       <c r="A17" s="4" t="s">
         <v>120</v>
       </c>
@@ -2462,7 +2475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19">
       <c r="A18" s="4" t="s">
         <v>122</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20">
       <c r="A19" s="4" t="s">
         <v>124</v>
       </c>
@@ -2522,7 +2535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20">
       <c r="A20" s="4" t="s">
         <v>132</v>
       </c>
@@ -2553,7 +2566,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20">
       <c r="A21" s="4" t="s">
         <v>173</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20">
       <c r="A22" s="4" t="s">
         <v>178</v>
       </c>
@@ -2590,12 +2603,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A25" s="18"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15" t="s">
@@ -2641,7 +2654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A26" s="18"/>
       <c r="B26" s="16"/>
       <c r="E26" s="15">
@@ -2657,7 +2670,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A27" s="18"/>
       <c r="B27" s="16"/>
       <c r="E27" s="15">
@@ -2676,7 +2689,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A28" s="18"/>
       <c r="B28" s="16"/>
       <c r="C28" s="15" t="s">
@@ -2701,14 +2714,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="10" customFormat="1" ht="19">
       <c r="A29" s="8"/>
       <c r="B29" s="13"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1" ht="38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="40">
       <c r="A30" s="18" t="s">
         <v>104</v>
       </c>
@@ -2731,7 +2744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A31" s="18"/>
       <c r="B31" s="16"/>
       <c r="D31" s="15" t="s">
@@ -2756,14 +2769,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="10" customFormat="1" ht="19">
       <c r="A32" s="8"/>
       <c r="B32" s="13"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="15" customFormat="1" ht="36">
       <c r="A33" s="18" t="s">
         <v>11</v>
       </c>
@@ -2788,7 +2801,7 @@
       </c>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A34" s="18"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15">
@@ -2817,11 +2830,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="19">
       <c r="A35" s="4"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A36" s="18" t="s">
         <v>9</v>
       </c>
@@ -2846,7 +2859,7 @@
       </c>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A37" s="18"/>
       <c r="B37" s="16"/>
       <c r="C37" s="15">
@@ -2873,17 +2886,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="19">
       <c r="A38" s="4"/>
       <c r="E38" s="10"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="19">
       <c r="A39" s="4"/>
       <c r="E39" s="10"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="18" customFormat="1" ht="19">
       <c r="A40" s="18" t="s">
         <v>10</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="18" customFormat="1" ht="19">
       <c r="C41" s="18">
         <v>1</v>
       </c>
@@ -2928,24 +2941,24 @@
         <v>32.5</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>222</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19">
       <c r="A42" s="4"/>
       <c r="E42" s="10"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="40">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -2978,17 +2991,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="19">
       <c r="A44" s="4"/>
       <c r="E44" s="10"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A45" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>7</v>
@@ -3012,7 +3025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A46" s="18"/>
       <c r="B46" s="19" t="s">
         <v>6</v>
@@ -3031,12 +3044,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="19">
       <c r="A47" s="4"/>
       <c r="E47" s="10"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:10" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="15" customFormat="1" ht="60">
       <c r="A48" s="18" t="s">
         <v>216</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A49" s="18"/>
       <c r="B49" s="21"/>
       <c r="E49" s="15">
@@ -3068,7 +3081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A50" s="18"/>
       <c r="B50" s="21"/>
       <c r="E50" s="15">
@@ -3084,7 +3097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A51" s="18"/>
       <c r="B51" s="21"/>
       <c r="E51" s="15">
@@ -3106,16 +3119,16 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="19">
       <c r="A52" s="4"/>
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="19">
       <c r="A53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -3128,22 +3141,22 @@
         <v>2.14</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19">
       <c r="A54" s="4"/>
       <c r="B54" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3156,21 +3169,21 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19">
       <c r="A55" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
@@ -3183,21 +3196,21 @@
         <v>2.31</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19">
       <c r="A56" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
@@ -3210,20 +3223,20 @@
         <v>1.3</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="19">
       <c r="A58" s="4" t="s">
         <v>150</v>
       </c>
@@ -3249,11 +3262,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="19">
       <c r="A59" s="4"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="19">
       <c r="A60" s="4" t="s">
         <v>205</v>
       </c>
@@ -3279,11 +3292,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="19">
       <c r="A61" s="4"/>
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A62" s="18" t="s">
         <v>52</v>
       </c>
@@ -3298,32 +3311,32 @@
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A63" s="18"/>
       <c r="B63" s="21"/>
       <c r="D63" s="15">
         <v>1.8</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A64" s="18"/>
       <c r="B64" s="21"/>
       <c r="D64" s="15">
@@ -3336,7 +3349,7 @@
         <v>65</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>172</v>
@@ -3345,14 +3358,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="10" customFormat="1" ht="19">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A66" s="18" t="s">
         <v>81</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="E67" s="15">
@@ -3385,7 +3398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="E68" s="15">
@@ -3401,10 +3414,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="19">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A70" s="22" t="s">
         <v>82</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="15" customFormat="1" ht="17">
       <c r="B71" s="16"/>
       <c r="E71" s="15">
         <v>160</v>
@@ -3445,21 +3458,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="15" customFormat="1">
       <c r="B72" s="16"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="10" customFormat="1">
       <c r="B73" s="13"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="10">
@@ -3474,19 +3487,19 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="10" t="s">
         <v>172</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="10" customFormat="1">
       <c r="A75" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="10">
@@ -3501,23 +3514,23 @@
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="10" t="s">
         <v>172</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="10" customFormat="1">
       <c r="B76" s="13"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A77" s="18" t="s">
         <v>72</v>
       </c>
@@ -3538,7 +3551,7 @@
       </c>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="E78" s="15">
@@ -3552,7 +3565,7 @@
       </c>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="E79" s="15">
@@ -3572,14 +3585,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="19">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="19">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:10" s="10" customFormat="1" ht="38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="10" customFormat="1" ht="40">
       <c r="A82" s="8" t="s">
         <v>89</v>
       </c>
@@ -3602,42 +3615,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="10" customFormat="1" ht="19">
       <c r="A83" s="8"/>
       <c r="B83" s="14"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="20">
       <c r="A84" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="E84" s="1">
         <v>19.8</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="19">
+      <c r="A85" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="19" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
@@ -3650,25 +3663,25 @@
         <v>15.6</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="I85" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="19">
       <c r="A86" s="23"/>
     </row>
-    <row r="87" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A87" s="22" t="s">
         <v>71</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A88" s="18"/>
       <c r="B88" s="16"/>
       <c r="C88" s="15">
@@ -3718,7 +3731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="15" customFormat="1" ht="20">
       <c r="A89" s="18"/>
       <c r="B89" s="16"/>
       <c r="C89" s="15">
@@ -3747,7 +3760,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3774,12 +3787,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="E91" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="10" customFormat="1" ht="20">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="17">
       <c r="A94" s="1" t="s">
         <v>26</v>
       </c>
@@ -3825,7 +3838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="19">
       <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
@@ -3845,7 +3858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="10" customFormat="1">
       <c r="A96" s="10" t="s">
         <v>27</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="19">
       <c r="A97" s="1" t="s">
         <v>35</v>
       </c>
@@ -3897,7 +3910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A98" s="18" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +3922,7 @@
       <c r="G98" s="17"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:10" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="15" customFormat="1" ht="36">
       <c r="A99" s="18"/>
       <c r="B99" s="16"/>
       <c r="E99" s="15">
@@ -3931,7 +3944,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="15" customFormat="1" ht="19">
       <c r="A100" s="18"/>
       <c r="E100" s="15">
         <v>102</v>
@@ -3946,7 +3959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="18" customFormat="1" ht="19">
       <c r="A104" s="18" t="s">
         <v>56</v>
       </c>
@@ -3990,9 +4003,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="18" customFormat="1" ht="19">
       <c r="B105" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C105" s="18">
         <v>1</v>
@@ -4004,22 +4017,22 @@
         <v>25</v>
       </c>
       <c r="F105" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H105" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="G105" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="I105" s="18" t="s">
         <v>172</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="19">
       <c r="A107" s="4" t="s">
         <v>12</v>
       </c>
@@ -4027,10 +4040,10 @@
         <v>93</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>172</v>
@@ -4039,7 +4052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="19">
       <c r="A108" s="1" t="s">
         <v>217</v>
       </c>
@@ -4050,7 +4063,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="50" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="53">
       <c r="A109" s="4" t="s">
         <v>30</v>
       </c>
@@ -4058,7 +4071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="17">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4084,7 +4097,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="17">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4092,17 +4105,17 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="19">
       <c r="A112" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="19">
       <c r="A113" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E113" s="1">
         <v>6</v>
@@ -4117,7 +4130,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="17">
       <c r="A114" s="1" t="s">
         <v>200</v>
       </c>
@@ -4143,7 +4156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="17">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -4173,66 +4186,66 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="17">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" s="1">
         <v>24.3</v>
       </c>
       <c r="F118" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="H118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17">
+      <c r="A119" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E119" s="1">
         <v>15.8</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="I119" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
